--- a/additional_papers/exclusion results.xlsx
+++ b/additional_papers/exclusion results.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Paper\MDE4DTs\additional_papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5074CC6D-1D32-4931-B12C-6398AB98462C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F9D100-4118-457F-A9D8-301EFF113AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exclusion results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
   <si>
     <t>Title</t>
   </si>
@@ -40,18 +53,9 @@
     <t>No MDE application</t>
   </si>
   <si>
-    <t>no MDE</t>
-  </si>
-  <si>
-    <t>Philosophical, Opinion, or Experience paper (ehem. Challenges Paper)</t>
-  </si>
-  <si>
     <t>A multi-model ensemble digital twin solution for real-time unsteady flow state estimation of a pumping station</t>
   </si>
   <si>
-    <t>no Model</t>
-  </si>
-  <si>
     <t>An EV-Traction Inverter Data-Driven Modelling for Digital Twin Development</t>
   </si>
   <si>
@@ -82,9 +86,6 @@
     <t>Digital Twins for Sustainable Software Systems</t>
   </si>
   <si>
-    <t>Opinion Paper</t>
-  </si>
-  <si>
     <t>Dynamic Runtime Integration of New Models in Digital Twins</t>
   </si>
   <si>
@@ -124,7 +125,10 @@
     <t>Supporting the Implementation of Digital Twins for IoT-Enhanced BPs</t>
   </si>
   <si>
-    <t xml:space="preserve">Philosophical, Opinion, or Experience paper (ehem. Challenges Paper) </t>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Philosophical, Opinion, or Experience paper</t>
   </si>
 </sst>
 </file>
@@ -636,20 +640,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1008,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1020,285 +1017,339 @@
     <col min="4" max="4" width="15.734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8" t="s">
+      <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="B3" s="4"/>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5"/>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6"/>
-    </row>
-    <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>12</v>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
         <v>5</v>
       </c>
     </row>
